--- a/biology/Botanique/Tillandsia_virescens/Tillandsia_virescens.xlsx
+++ b/biology/Botanique/Tillandsia_virescens/Tillandsia_virescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia virescens Ruiz &amp; Pav. est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète virescens signifie « presque verte, verdissante » et se rapporte non au coloris du feuillage mais à celui du fruit.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia virescens Ruiz &amp; Pav., Fl. Per. 3: 43, n° 11, tab.270b (1802)
-Diagnose originale[1]  :
+Diagnose originale  :
 « T. pedunculo unifloro foliorum longitudine, bractea solitaria convoluta, foliis lineari-subulatis, capsula virescente. »
 Type : Ruiz &amp; Pav., Fl. Per. : tab. 270b (1802)
 </t>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,7 +588,9 @@
           <t>Synonymie nomenclaturale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Diaphoranthema virescens (Ruiz &amp; Pav.) Beer
 Tillandsia capillaris f. virescens L.B.Sm.</t>
@@ -603,14 +621,16 @@
           <t>Synonymie taxonomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tillandsia capillaris Ruiz &amp; Pav[2].
-Tillandsia capillaris var. incana Mez[3]
-Tillandsia cordobensis Hieron[3].
-Tillandsia hieronymii Mez[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris Ruiz &amp; Pav.
+Tillandsia capillaris var. incana Mez
+Tillandsia cordobensis Hieron.
+Tillandsia hieronymii Mez
 Tillandsia incana Gillies ex Baker
-Tillandsia propinqua Gay[4]</t>
+Tillandsia propinqua Gay</t>
         </is>
       </c>
     </row>
@@ -639,6 +659,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,11 +686,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée ; épiphyte[4],[3] ou saxicole[4],[3].
-Habitat : escarpements chauds[1].
-Altitude : 500-4 000 m[3].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée ; épiphyte, ou saxicole,.
+Habitat : escarpements chauds.
+Altitude : 500-4 000 m.</t>
         </is>
       </c>
     </row>
@@ -696,17 +720,19 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Amérique du sud :
- Argentine[4],[3]
-Mendoza[5]
- Bolivie[4],[3]
-Régions andines[5]
- Chili[4]
- Pérou[3]
-Huánuco (fréquent)[1]
-Régions andines[4],[5]</t>
+ Argentine,
+Mendoza
+ Bolivie,
+Régions andines
+ Chili
+ Pérou
+Huánuco (fréquent)
+Régions andines,</t>
         </is>
       </c>
     </row>
@@ -735,6 +761,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
